--- a/Documents/ValoriEuristica.xlsx
+++ b/Documents/ValoriEuristica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perro\Desktop\WorkSpaceAI\AIChallenge2019-Tablut\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3C51545-015D-412C-BFCD-06B5FB0604CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E291FF-0DD4-46B0-A8CD-C01FDB26B090}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AE7C23A-FCCC-42C3-9A73-C773935A460E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>VALORI EURISTICA BIANCA</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>KingWin</t>
+  </si>
+  <si>
+    <t>TOTALE</t>
+  </si>
+  <si>
+    <t>42 in caso di distanza massima</t>
   </si>
 </sst>
 </file>
@@ -138,14 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -460,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA76406-872B-41F1-ADF3-332BD079D8F4}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,168 +484,230 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="H3" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="H4" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="H5" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="H6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="H7" s="1" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="H8" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="H9" s="1" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="H10" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="H11" s="1" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2">
+        <v>-100</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5">
+        <f>SUM(D3:D12)</f>
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K3:K11)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
